--- a/data/income_statement/2digits/size/75_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/75_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>75-Veterinary activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>75-Veterinary activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,104 +841,119 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>91299.42606999999</v>
+        <v>92264.06856999999</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>106850.8892</v>
+        <v>111234.09662</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>136245.77663</v>
+        <v>141432.11773</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>141130.35161</v>
+        <v>144941.26861</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>122931.2432</v>
+        <v>131193.02868</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>123258.71322</v>
+        <v>132034.09498</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>138838.29255</v>
+        <v>147050.29786</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>153240.07475</v>
+        <v>160923.94999</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>160345.95374</v>
+        <v>182147.267</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>286251.28465</v>
+        <v>303419.75968</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>366178.95799</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>399079.73771</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>505098.568</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>88535.79537000001</v>
+        <v>89494.43787000001</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>102693.57063</v>
+        <v>106458.28495</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>131971.70374</v>
+        <v>137029.41591</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>136871.40012</v>
+        <v>140564.18659</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>119201.07321</v>
+        <v>127281.65595</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>119802.57479</v>
+        <v>128562.64495</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>134021.66392</v>
+        <v>142021.77153</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>148616.11353</v>
+        <v>156116.79765</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>155670.78524</v>
+        <v>176833.89701</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>279611.47926</v>
+        <v>296523.14199</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>358432.06355</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>390932.44485</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>495260.924</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>1315.69443</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>1811.69686</v>
+        <v>2376.37367</v>
       </c>
       <c r="E7" s="48" t="n">
         <v>1581.20662</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>838.7218</v>
+        <v>873.9218000000001</v>
       </c>
       <c r="G7" s="48" t="n">
         <v>762.42675</v>
@@ -1055,61 +971,71 @@
         <v>149.06379</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>489.03297</v>
+        <v>589.33842</v>
       </c>
       <c r="M7" s="48" t="n">
         <v>25.67652</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="48" t="n">
+        <v>85.80200000000001</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>1447.93627</v>
+        <v>1453.93627</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>2345.62171</v>
+        <v>2399.438</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>2692.86627</v>
+        <v>2821.4952</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>3420.22969</v>
+        <v>3503.16022</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>2967.74324</v>
+        <v>3148.94598</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>3320.81588</v>
+        <v>3336.12748</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>4781.31803</v>
+        <v>4993.215730000001</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>4503.40652</v>
+        <v>4686.59764</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>4526.10471</v>
+        <v>5164.3062</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>6150.77242</v>
+        <v>6307.27927</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>7721.21792</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>8121.61634</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>9751.842000000001</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>117.71834</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>221.64711</v>
+        <v>224.82509</v>
       </c>
       <c r="E9" s="47" t="n">
         <v>981.03374</v>
@@ -1118,31 +1044,36 @@
         <v>464.08583</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>240.39705</v>
+        <v>447.17111</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>234.12893</v>
+        <v>242.28437</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>636.54249</v>
+        <v>640.80932</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>344.30232</v>
+        <v>359.45481</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>253.80664</v>
+        <v>276.09704</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>1024.76075</v>
+        <v>1027.48696</v>
       </c>
       <c r="M9" s="47" t="n">
         <v>568.9028000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="47" t="n">
+        <v>755.325</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>113.38928</v>
@@ -1157,37 +1088,42 @@
         <v>247.79362</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>234.35971</v>
+        <v>441.13377</v>
       </c>
       <c r="H10" s="48" t="n">
         <v>225.43922</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>591.99072</v>
+        <v>596.25755</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>183.62621</v>
+        <v>198.6762</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>23.87031</v>
+        <v>45.46537</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>171.41529</v>
+        <v>174.1415</v>
       </c>
       <c r="M10" s="48" t="n">
         <v>567.9656600000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="48" t="n">
+        <v>745.581</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>4.32906</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>1.4648</v>
+        <v>4.64278</v>
       </c>
       <c r="E11" s="48" t="n">
         <v>0.37014</v>
@@ -1205,10 +1141,10 @@
         <v>44.26765</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>110.52896</v>
+        <v>110.63146</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>220.56274</v>
+        <v>221.25808</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>852.03361</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>0.61714</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>6.193</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>0</v>
@@ -1238,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>8.17863</v>
+        <v>16.33407</v>
       </c>
       <c r="I12" s="48" t="n">
         <v>0.28412</v>
@@ -1255,167 +1196,192 @@
       <c r="M12" s="48" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>3.551</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>91181.70773000001</v>
+        <v>92146.35023000001</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>106629.24209</v>
+        <v>111009.27153</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>135264.74289</v>
+        <v>140451.08399</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>140666.26578</v>
+        <v>144477.18278</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>122690.84615</v>
+        <v>130745.85757</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>123024.58429</v>
+        <v>131791.81061</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>138201.75006</v>
+        <v>146409.48854</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>152895.77243</v>
+        <v>160564.49518</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>160092.1471</v>
+        <v>181871.16996</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>285226.5239</v>
+        <v>302392.27272</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>365610.05519</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>398510.83491</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>504343.243</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>67752.30194</v>
+        <v>68573.5727</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>79354.99534000001</v>
+        <v>82691.46238</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>103269.21123</v>
+        <v>107827.81549</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>105093.83657</v>
+        <v>108480.88069</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>89232.08033</v>
+        <v>94651.54371</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>89016.99323000001</v>
+        <v>95158.19055</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>102051.33098</v>
+        <v>107880.99884</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>112258.87883</v>
+        <v>118062.11386</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>114718.90111</v>
+        <v>130117.69297</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>208335.99452</v>
+        <v>222933.88705</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>266907.72726</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>291817.60995</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>364359.568</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>4661.79141</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>2606.32323</v>
+        <v>4341.08205</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>2395.44584</v>
+        <v>3619.44366</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>2812.16164</v>
+        <v>3240.31957</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>1579.85621</v>
+        <v>1884.66892</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>1182.5036</v>
+        <v>1346.00806</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>1426.21996</v>
+        <v>1710.32386</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>2807.00641</v>
+        <v>2930.79943</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>1231.56102</v>
+        <v>1509.91683</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>2950.35144</v>
+        <v>4006.84906</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>9238.91538</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>9305.310710000002</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>11399.933</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>54330.72192</v>
+        <v>55151.99268</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>65936.92487</v>
+        <v>67538.63309</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>87461.53559</v>
+        <v>90522.73904</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>87443.61537</v>
+        <v>89948.82882</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>69985.28934999999</v>
+        <v>73974.70953000001</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>69491.35479000001</v>
+        <v>73996.86337000001</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>78944.91598000001</v>
+        <v>83153.96372</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>85008.49857</v>
+        <v>90493.48572</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>88018.57364</v>
+        <v>101179.11445</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>157652.11631</v>
+        <v>168863.7002</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>200385.55793</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>222085.67312</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>267011.04</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>8738.060089999999</v>
@@ -1424,37 +1390,42 @@
         <v>10532.23056</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>13323.47795</v>
+        <v>13596.88094</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>14748.37301</v>
+        <v>15202.04575</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>17541.51985</v>
+        <v>18666.75034</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>18112.13021</v>
+        <v>19584.31449</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>21230.61062</v>
+        <v>22567.12684</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>24156.17116</v>
+        <v>24350.62602</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>24290.70116</v>
+        <v>26250.5964</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>47155.98231</v>
+        <v>49485.79333</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>55984.70896</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>59128.08113000001</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>84241.446</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>21.72852</v>
@@ -1489,89 +1460,104 @@
       <c r="M18" s="48" t="n">
         <v>1298.54499</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>1707.149</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>23429.40579</v>
+        <v>23572.77753</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>27274.24675</v>
+        <v>28317.80915</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>31995.53166</v>
+        <v>32623.2685</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>35572.42921</v>
+        <v>35996.30209</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>33458.76582</v>
+        <v>36094.31386</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>34007.59106</v>
+        <v>36633.62006</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>36150.41908</v>
+        <v>38528.48970000001</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>40636.8936</v>
+        <v>42502.38132</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>45373.24599</v>
+        <v>51753.47699</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>76890.52937999999</v>
+        <v>79458.38567</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>98702.32793000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>106693.22496</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>139983.675</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>18142.44759</v>
+        <v>18367.66653</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>20496.10837</v>
+        <v>21245.7089</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>24479.22199</v>
+        <v>25203.26211</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>27820.28644</v>
+        <v>28263.36508</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>26875.61665</v>
+        <v>28257.59749</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>27841.86926</v>
+        <v>29233.85715</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>29545.53797</v>
+        <v>31246.59986</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>33076.62864</v>
+        <v>34716.08253</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>36868.24757</v>
+        <v>41856.00228</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>60189.37378</v>
+        <v>62143.92755</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>81419.8477</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>87662.42454000001</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>107174.637</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>65.04523999999999</v>
@@ -1606,167 +1592,192 @@
       <c r="M21" s="48" t="n">
         <v>531.8798399999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>210.87</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>2641.64522</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>3388.56936</v>
+        <v>3419.42165</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>4297.75265</v>
+        <v>4330.27223</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>4473.73613</v>
+        <v>4544.90618</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>3683.72933</v>
+        <v>3924.04234</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>4559.33617</v>
+        <v>4684.87227</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>4207.23336</v>
+        <v>4302.76395</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>4323.97482</v>
+        <v>4561.52913</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>5053.93948</v>
+        <v>6071.03213</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>7931.45828</v>
+        <v>7964.14073</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>9072.103230000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>9829.98365</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>12856.741</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>15435.75713</v>
+        <v>15660.97607</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>17107.42218</v>
+        <v>17826.17042</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>20181.46934</v>
+        <v>20872.98988</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>23346.55031</v>
+        <v>23718.4589</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>23091.83815</v>
+        <v>24233.50598</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>23078.36026</v>
+        <v>24344.81205</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>24775.98275</v>
+        <v>26381.51405</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>28461.78653</v>
+        <v>29863.68611</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>31781.31785</v>
+        <v>35751.97990999999</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>52118.26965</v>
+        <v>54040.14097</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>71815.86463</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>77300.56105</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>94107.026</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>5286.9582</v>
+        <v>5205.111</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>6778.13838</v>
+        <v>7072.10025</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>7516.30967</v>
+        <v>7420.00639</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>7752.142769999999</v>
+        <v>7732.93701</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>6583.14917</v>
+        <v>7836.71637</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>6165.7218</v>
+        <v>7399.76291</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>6604.88111</v>
+        <v>7281.88984</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>7560.26496</v>
+        <v>7786.29879</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>8504.99842</v>
+        <v>9897.47471</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>16701.1556</v>
+        <v>17314.45812</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>17282.48023</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>19030.80042</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>32809.038</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>295.65341</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>205.76361</v>
+        <v>1282.03884</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>332.85949</v>
+        <v>408.56952</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>405.96614</v>
+        <v>456.5416</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>554.10133</v>
+        <v>577.59925</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>395.0441</v>
+        <v>420.29005</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>614.9227099999999</v>
+        <v>2161.30487</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>628.87344</v>
+        <v>757.79961</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>819.01976</v>
+        <v>905.07007</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1401.42517</v>
+        <v>1889.44612</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>2271.61487</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>2966.33574</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>3185.501</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>44.3007</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>53.38458</v>
+        <v>976.81458</v>
       </c>
       <c r="E28" s="48" t="n">
         <v>143.60361</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>93.47892999999999</v>
+        <v>142.55401</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>44.22832</v>
+        <v>65.7289</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>85.2581</v>
+        <v>95.84200999999999</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>94.22082</v>
+        <v>94.38057999999999</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>121.23399</v>
+        <v>122.35837</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>121.92175</v>
+        <v>158.0863</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>236.17983</v>
+        <v>628.8392</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>503.75006</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>1057.70033</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>802.502</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0.432</v>
@@ -1913,16 +1939,21 @@
         <v>0</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>0</v>
+        <v>4.6885</v>
       </c>
       <c r="M29" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>11.071</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>3.06834</v>
@@ -1970,19 +2006,19 @@
         <v>5.99683</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>2.73729</v>
+        <v>2.75076</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>17.86523</v>
+        <v>21.31242</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>12.09857</v>
+        <v>12.10718</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>2.59902</v>
+        <v>2.6007</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>2.09214</v>
+        <v>2.25088</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>1.03055</v>
@@ -1996,50 +2032,60 @@
       <c r="M31" s="48" t="n">
         <v>38.13036</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>29.556</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>89.85172999999999</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>21.95638</v>
+        <v>124.73938</v>
       </c>
       <c r="E32" s="48" t="n">
         <v>84.00436000000001</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>54.07762</v>
+        <v>57.07262</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>117.73887</v>
+        <v>118.25543</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>46.28137</v>
+        <v>47.09838</v>
       </c>
       <c r="I32" s="48" t="n">
         <v>132.02139</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>89.43200999999999</v>
+        <v>94.62542999999999</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>139.07248</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>343.59472</v>
+        <v>434.26742</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>450.22466</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>510.36286</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1060.986</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>1.36868</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>1e-05</v>
@@ -2113,89 +2164,104 @@
       <c r="M34" s="48" t="n">
         <v>44.88292</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>146.92963</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>103.7516</v>
+        <v>153.81383</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>102.51423</v>
+        <v>178.21079</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>240.2931</v>
+        <v>235.35129</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>377.12057</v>
+        <v>378.59274</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>260.84587</v>
+        <v>274.68922</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>386.49154</v>
+        <v>1932.5552</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>416.92689</v>
+        <v>539.53526</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>472.71137</v>
+        <v>522.59713</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>804.6139499999999</v>
+        <v>804.61433</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>1233.08819</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>1313.72059</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1292.457</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>247.12996</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>163.25151</v>
+        <v>252.66321</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>182.1027</v>
+        <v>221.09778</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>199.50426</v>
+        <v>199.91824</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>299.62409</v>
+        <v>301.25692</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>207.34278</v>
+        <v>207.45168</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>282.83723</v>
+        <v>301.62438</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>266.93657</v>
+        <v>266.93661</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>298.69222</v>
+        <v>314.80629</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>498.38203</v>
+        <v>582.79197</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1138.77131</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>1142.67736</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>856.487</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>74.70324000000001</v>
@@ -2222,7 +2288,7 @@
         <v>69.56058999999999</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>82.47213000000001</v>
+        <v>86.00519</v>
       </c>
       <c r="L37" s="48" t="n">
         <v>119.48226</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>168.37159</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>150.002</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>111.26926</v>
@@ -2267,13 +2338,18 @@
         <v>12.75302</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>528.8382800000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>532.49194</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>243.485</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2308,23 +2384,28 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>12.74058</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>21.44026</v>
+        <v>90.23439</v>
       </c>
       <c r="E40" s="48" t="n">
         <v>8.956569999999999</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>40.84305999999999</v>
+        <v>41.25371</v>
       </c>
       <c r="G40" s="48" t="n">
         <v>20.89119</v>
@@ -2333,25 +2414,30 @@
         <v>24.72635</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>52.19703</v>
+        <v>53.75581</v>
       </c>
       <c r="J40" s="48" t="n">
         <v>1.34502</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>12.23066</v>
+        <v>24.23707</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>21.75599</v>
+        <v>41.06663</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>110.56466</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>110.81659</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>152.492</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0.73625</v>
@@ -2425,134 +2516,154 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>47.68063</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>52.37223</v>
+        <v>72.9898</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>98.30125</v>
+        <v>137.29633</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>64.33157</v>
+        <v>64.3349</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>148.66756</v>
+        <v>150.30039</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>34.89938</v>
+        <v>35.00828</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>132.53767</v>
+        <v>149.76604</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>196.03096</v>
+        <v>196.031</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>121.73013</v>
+        <v>122.30473</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>336.46337</v>
+        <v>401.56267</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>330.99678</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>330.99724</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>310.508</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>939.62575</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>779.74924</v>
+        <v>854.3140999999999</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>760.44429</v>
+        <v>809.56979</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>938.6249</v>
+        <v>964.64847</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>702.8521999999999</v>
+        <v>764.66599</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>857.4039</v>
+        <v>887.10631</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>950.59916</v>
+        <v>963.0137099999999</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>1020.82349</v>
+        <v>1060.52181</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>1167.34467</v>
+        <v>1356.25039</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>2812.23343</v>
+        <v>3069.3828</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>3833.82221</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>4322.99834</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>4724.162</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>868.3466</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>706.0934999999999</v>
+        <v>743.19395</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>717.8130600000001</v>
+        <v>766.9385600000001</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>917.75045</v>
+        <v>943.7740200000001</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>685.53381</v>
+        <v>747.3475999999999</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>814.79725</v>
+        <v>844.4996600000001</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>927.81417</v>
+        <v>940.22872</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>962.9523799999999</v>
+        <v>991.9714300000001</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>1052.44506</v>
+        <v>1241.35078</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>2666.53826</v>
+        <v>2923.68763</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>3537.46229</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>4026.63842</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>4374.209</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>71.27914999999999</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>73.65574000000001</v>
+        <v>111.12015</v>
       </c>
       <c r="E46" s="48" t="n">
         <v>42.63123</v>
@@ -2570,7 +2681,7 @@
         <v>22.78499</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>57.87111</v>
+        <v>68.55038</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>114.89961</v>
@@ -2581,89 +2692,104 @@
       <c r="M46" s="48" t="n">
         <v>296.35992</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>349.953</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>4395.8559</v>
+        <v>4314.0087</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>6040.90124</v>
+        <v>7247.16178</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>6906.62217</v>
+        <v>6797.90834</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>7019.97975</v>
+        <v>7024.9119</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>6134.77421</v>
+        <v>7348.39271</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>5496.01922</v>
+        <v>6725.49497</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>5986.367429999999</v>
+        <v>8178.55662</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>6901.37834</v>
+        <v>7216.639980000001</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>7857.98129</v>
+        <v>9131.4881</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>14791.96531</v>
+        <v>15551.72947</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>14581.50158</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>16531.46046</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>30413.89</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>266.15657</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>475.10697</v>
+        <v>480.63359</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>754.14144</v>
+        <v>790.8211700000001</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>811.75888</v>
+        <v>872.95717</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>563.24215</v>
+        <v>659.12405</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>599.06641</v>
+        <v>660.9809799999999</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>630.18199</v>
+        <v>680.1798299999999</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>705.40178</v>
+        <v>783.1415500000001</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>797.11551</v>
+        <v>1036.57909</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>1954.06453</v>
+        <v>2107.32169</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>3225.96249</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>3313.68131</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>3273.083</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>4.86071</v>
@@ -2698,89 +2824,104 @@
       <c r="M49" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>48.588</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>261.29586</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>470.60314</v>
+        <v>476.12976</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>754.14144</v>
+        <v>790.8211700000001</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>807.70799</v>
+        <v>868.90628</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>562.4402299999999</v>
+        <v>658.32213</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>599.06641</v>
+        <v>660.9809799999999</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>628.6964</v>
+        <v>678.69424</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>705.40178</v>
+        <v>783.1415500000001</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>790.08683</v>
+        <v>1029.55041</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>1947.41471</v>
+        <v>2100.67187</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>3225.96249</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>3313.68131</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>3224.495</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>593.4046099999999</v>
+        <v>599.18154</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>505.90386</v>
+        <v>510.13251</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>4477.63673</v>
+        <v>4505.46961</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>717.43139</v>
+        <v>750.3246800000001</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>543.32628</v>
+        <v>597.59622</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>2469.07084</v>
+        <v>2488.18916</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>474.70672</v>
+        <v>545.7532</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>2074.74314</v>
+        <v>2128.24539</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>507.22917</v>
+        <v>585.87245</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>5612.13602</v>
+        <v>5613.81385</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>1433.71164</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>1450.50704</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>2245.441</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>0.00216</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>77.19311999999999</v>
@@ -2837,7 +2983,7 @@
         <v>30.47478</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>135.50983</v>
+        <v>135.55093</v>
       </c>
       <c r="I53" s="48" t="n">
         <v>1.32213</v>
@@ -2852,166 +2998,189 @@
         <v>39.37973</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>31.44892</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>31.44898</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>170.879</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>516.21149</v>
+        <v>521.98842</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>455.11466</v>
+        <v>459.34331</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>4286.22028</v>
+        <v>4314.05316</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>656.0407299999999</v>
+        <v>688.93402</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>512.85149</v>
+        <v>567.12143</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>2333.56079</v>
+        <v>2352.63801</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>473.37881</v>
+        <v>544.42529</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>1989.29233</v>
+        <v>2042.79458</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>476.38913</v>
+        <v>555.03241</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>5572.75329</v>
+        <v>5574.43112</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>1402.26056</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>1419.0559</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>2074.56</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>4068.60786</v>
+        <v>3980.98373</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>6010.10435</v>
+        <v>7217.66286</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>3183.12688</v>
+        <v>3083.2599</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>7114.30724</v>
+        <v>7147.54439</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>6154.69008</v>
+        <v>7409.92054</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>3626.01479</v>
+        <v>4898.28679</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>6141.8427</v>
+        <v>8312.983249999999</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>5532.036980000001</v>
+        <v>5871.536139999999</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>8147.86763</v>
+        <v>9582.194740000001</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>11133.89382</v>
+        <v>12045.23731</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>16373.75243</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>18394.63473</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>31441.532</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>835.87251</v>
+        <v>840.03333</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>1118.35896</v>
+        <v>1152.39682</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>1391.83929</v>
+        <v>1407.66244</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>1475.52617</v>
+        <v>1495.36615</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>1353.7342</v>
+        <v>1606.94358</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>1240.13088</v>
+        <v>1488.3529</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>1350.7129</v>
+        <v>1513.1592</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>1370.42672</v>
+        <v>1441.49199</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>1721.64598</v>
+        <v>1931.59112</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>3389.03908</v>
+        <v>3651.77504</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>4207.81885</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>4675.12267</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>7184.76</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>3232.73535</v>
+        <v>3140.9504</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>4891.74539</v>
+        <v>6065.26604</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>1791.28759</v>
+        <v>1675.59746</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>5638.78107</v>
+        <v>5652.17824</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>4800.95588</v>
+        <v>5802.97696</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>2385.88391</v>
+        <v>3409.93389</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>4791.1298</v>
+        <v>6799.82405</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>4161.610259999999</v>
+        <v>4430.044150000001</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>6426.22165</v>
+        <v>7650.60362</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>7744.854740000001</v>
+        <v>8393.46227</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>12165.93358</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>13719.51206</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>24256.772</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>674</v>
+        <v>683</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>671</v>
+        <v>682</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>651</v>
+        <v>662</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>584</v>
+        <v>600</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>535</v>
+        <v>558</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>520</v>
+        <v>542</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>503</v>
+        <v>522</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>500</v>
+        <v>544</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>601</v>
+        <v>638</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>716</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>